--- a/szmtp2.xlsx
+++ b/szmtp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -143,6 +143,18 @@
   </x:si>
   <x:si>
     <x:t>Input valid value in the Case Origin field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_3.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edit Case</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Case tab, and click on Edit button</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -226,8 +238,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J9" totalsRowShown="0">
-  <x:autoFilter ref="A1:J9"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J11" totalsRowShown="0">
+  <x:autoFilter ref="A1:J11"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -532,7 +544,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J9"/>
+  <x:dimension ref="A1:J11"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -752,6 +764,52 @@
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
     </x:row>
+    <x:row r="10" spans="1:10">
+      <x:c r="A10" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s"/>
+      <x:c r="F10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s"/>
+      <x:c r="J10" s="0" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:10">
+      <x:c r="A11" s="0" t="s"/>
+      <x:c r="B11" s="0" t="s"/>
+      <x:c r="C11" s="0" t="s"/>
+      <x:c r="D11" s="0" t="s"/>
+      <x:c r="E11" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s"/>
+      <x:c r="J11" s="0" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
